--- a/game/MMO/ExcelMMO/guide.xlsx
+++ b/game/MMO/ExcelMMO/guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mtjmmo\branches\qy_yj_dev_2.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC3D0B-8F69-490E-AB46-58E81018EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D94CE6-6B03-4AF8-9B52-E5DCC17326D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="1170" windowWidth="22410" windowHeight="13485" tabRatio="660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">display3!$A$4:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">display4!$A$4:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="37" hidden="1">display6!$A$4:$N$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">guide!$A$4:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">guide!$A$4:$K$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,76 +96,7 @@
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=强引导
-2=弱引导</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=已接取任务id
-2=系统开放id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=等级
-2=点击必做
-3=接取任务
-4=提交任务
-5=进入副本
-6=退出副本
-7=进入副本组
-8=第一次弹出离线挂机UI
-9=完成副本
-10=可以进行主线
-11=进入场景
-17</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -185,6 +116,162 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -340,7 +427,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -496,7 +583,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -625,7 +712,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -781,7 +868,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -937,7 +1024,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1093,7 +1180,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1249,7 +1336,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1405,7 +1492,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1561,7 +1648,86 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=强引导
+2=弱引导</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=已接取任务id
+2=系统开放id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=等级
+2=点击必做
+3=接取任务
+4=提交任务
+5=进入副本
+6=退出副本
+7=进入副本组
+8=第一次弹出离线挂机UI
+9=完成副本
+10=可以进行主线
+11=进入场景
+17</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1717,7 +1883,1168 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1700-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1700-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -1873,1168 +3200,7 @@
 </comments>
 </file>
 
-<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1500-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1700-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1700-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1700-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1900-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1900-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1B00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -3190,7 +3356,1357 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments31.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments32.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments36.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2300-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2300-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments38.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2500-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments39.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2600-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2600-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -3346,1357 +4862,7 @@
 </comments>
 </file>
 
-<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1E00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments31.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-1F00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments32.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2100-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2300-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2300-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2300-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments36.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2400-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2500-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2500-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2500-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments38.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-2600-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-2600-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-2600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments40.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -4825,163 +4991,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments41.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5110,7 +5120,7 @@
 </comments>
 </file>
 
-<file path=xl/comments41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments42.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5239,7 +5249,7 @@
 </comments>
 </file>
 
-<file path=xl/comments42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments43.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5412,7 +5422,7 @@
 </comments>
 </file>
 
-<file path=xl/comments43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments44.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5541,7 +5551,7 @@
 </comments>
 </file>
 
-<file path=xl/comments44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments45.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5670,7 +5680,7 @@
 </comments>
 </file>
 
-<file path=xl/comments45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments46.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5799,7 +5809,7 @@
 </comments>
 </file>
 
-<file path=xl/comments46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments47.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -5928,7 +5938,7 @@
 </comments>
 </file>
 
-<file path=xl/comments47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments48.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6057,7 +6067,7 @@
 </comments>
 </file>
 
-<file path=xl/comments48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments49.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6186,7 +6196,163 @@
 </comments>
 </file>
 
-<file path=xl/comments49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+    <author>123</author>
+    <author>堕落无罪</author>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有精灵的框
+2：纯框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1左:-20|0
+2右:20|0
+3上:0|20
+4下:0|-20
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1=精灵在右
+2=精灵在左</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>123:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
+1是主UI，2是任务栏，3是右上角</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>堕落无罪:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：不关闭（默认）
+1：关闭
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填N就表示几秒后自动点击，不填则表示不自动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments50.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6315,7 +6481,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6471,7 +6637,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6627,7 +6793,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6783,7 +6949,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
@@ -6939,164 +7105,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PC</author>
-    <author>123</author>
-    <author>堕落无罪</author>
-    <author>Windows 用户</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1：有精灵的框
-2：纯框</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1左:-20|0
-2右:20|0
-3上:0|20
-4下:0|-20
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1=精灵在右
-2=精灵在左</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>123:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-触发强引导的第一步填写，防止玩家在主界面 触发强指引前打开了 其他UI卡死 
-1是主UI，2是任务栏，3是右上角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堕落无罪:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：不关闭（默认）
-1：关闭
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Windows 用户:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填N就表示几秒后自动点击，不填则表示不自动</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="740">
   <si>
     <t>id</t>
   </si>
@@ -10206,10 +10216,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>珍珠卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display317</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10227,11 +10233,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GuiCamera/VipPanel/privilegeCard/list/Viewport/Content/0_0/btnGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜您开启了珍珠卡特权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuiCamera/MainPanel/icon_rukou_gmtools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示GM点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到买珍珠卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilegeCard/list/Viewport/Content/btnactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10487,7 +10509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10889,6 +10911,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10898,7 +10929,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12182,12 +12223,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D39"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12567,7 +12608,7 @@
         <v>42</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="4"/>
@@ -12615,12 +12656,12 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="138" t="s">
         <v>708</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
@@ -12682,24 +12723,1432 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
+    </row>
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="40">
+        <v>65000000407</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>674</v>
+      </c>
+      <c r="C64" s="40">
+        <v>2</v>
+      </c>
+      <c r="D64" s="40">
+        <v>1</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40">
+        <v>1</v>
+      </c>
+      <c r="I64" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="40">
+        <v>65000000001</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="40">
+        <v>2</v>
+      </c>
+      <c r="D65" s="40">
+        <v>2</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="H65" s="40">
+        <v>3</v>
+      </c>
+      <c r="I65" s="40">
+        <v>31011010010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="40">
+        <v>65000000002</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="40">
+        <v>1</v>
+      </c>
+      <c r="D66" s="40">
+        <v>2</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="40">
+        <v>1</v>
+      </c>
+      <c r="G66" s="40">
+        <v>31021030010</v>
+      </c>
+      <c r="H66" s="40">
+        <v>1</v>
+      </c>
+      <c r="I66" s="40">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="40">
+        <v>65000000003</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="40">
+        <v>1</v>
+      </c>
+      <c r="D67" s="40">
+        <v>2</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="40">
+        <v>3</v>
+      </c>
+      <c r="I67" s="40">
+        <v>31011030040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="40">
+        <v>65000000004</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="40">
+        <v>1</v>
+      </c>
+      <c r="D68" s="40">
+        <v>2</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="40">
+        <v>4</v>
+      </c>
+      <c r="I68" s="40">
+        <v>31011030090</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="40">
+        <v>65000000005</v>
+      </c>
+      <c r="B69" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="40">
+        <v>1</v>
+      </c>
+      <c r="D69" s="40">
+        <v>2</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="40">
+        <v>2</v>
+      </c>
+      <c r="G69" s="40">
+        <v>37</v>
+      </c>
+      <c r="H69" s="40">
+        <v>3</v>
+      </c>
+      <c r="I69" s="40">
+        <v>31011030092</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="40">
+        <v>65000000006</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="40">
+        <v>1</v>
+      </c>
+      <c r="D70" s="40">
+        <v>2</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="H70" s="40">
+        <v>3</v>
+      </c>
+      <c r="I70" s="40">
+        <v>31011030141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="40">
+        <v>65000000007</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="40">
+        <v>1</v>
+      </c>
+      <c r="D71" s="40">
+        <v>2</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" s="40">
+        <v>7</v>
+      </c>
+      <c r="I71" s="40">
+        <v>49100003001</v>
+      </c>
+      <c r="J71" s="40" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40">
+        <v>65000000008</v>
+      </c>
+      <c r="B72" s="130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="40">
+        <v>1</v>
+      </c>
+      <c r="D72" s="40">
+        <v>2</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="40">
+        <v>1</v>
+      </c>
+      <c r="I72" s="40">
+        <v>9999</v>
+      </c>
+      <c r="K72" s="40">
+        <v>49000005902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="40">
+        <v>65000000009</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="40">
+        <v>1</v>
+      </c>
+      <c r="D73" s="40">
+        <v>2</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H73" s="40">
+        <v>8</v>
+      </c>
+      <c r="I73" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="40">
+        <v>65000000010</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="40">
+        <v>1</v>
+      </c>
+      <c r="D74" s="40">
+        <v>2</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74" s="40">
+        <v>2</v>
+      </c>
+      <c r="I74" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="40">
+        <v>65000000011</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="40">
+        <v>1</v>
+      </c>
+      <c r="D75" s="40">
+        <v>2</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" s="40">
+        <v>1</v>
+      </c>
+      <c r="I75" s="40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="40">
+        <v>65000000012</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" s="40">
+        <v>1</v>
+      </c>
+      <c r="D76" s="40">
+        <v>2</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" s="40">
+        <v>3</v>
+      </c>
+      <c r="I76" s="40">
+        <v>31011030150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="40">
+        <v>65000000013</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="40">
+        <v>1</v>
+      </c>
+      <c r="D77" s="40">
+        <v>2</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" s="40">
+        <v>2</v>
+      </c>
+      <c r="I77" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="40">
+        <v>65000000014</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" s="40">
+        <v>1</v>
+      </c>
+      <c r="D78" s="40">
+        <v>2</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H78" s="40">
+        <v>4</v>
+      </c>
+      <c r="I78" s="40">
+        <v>31021010210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="40">
+        <v>65000000015</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C79" s="40">
+        <v>1</v>
+      </c>
+      <c r="D79" s="40">
+        <v>2</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="40">
+        <v>4</v>
+      </c>
+      <c r="I79" s="40">
+        <v>31021010410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="40">
+        <v>65000000016</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="40">
+        <v>1</v>
+      </c>
+      <c r="D80" s="40">
+        <v>2</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" s="40">
+        <v>2</v>
+      </c>
+      <c r="I80" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="40">
+        <v>65000000017</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="40">
+        <v>1</v>
+      </c>
+      <c r="D81" s="40">
+        <v>2</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" s="40">
+        <v>2</v>
+      </c>
+      <c r="I81" s="40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="40">
+        <v>65000000018</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" s="40">
+        <v>1</v>
+      </c>
+      <c r="D82" s="40">
+        <v>2</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" s="40">
+        <v>2</v>
+      </c>
+      <c r="I82" s="40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="40">
+        <v>65000000019</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="40">
+        <v>1</v>
+      </c>
+      <c r="D83" s="40">
+        <v>2</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H83" s="40">
+        <v>4</v>
+      </c>
+      <c r="I83" s="40">
+        <v>31021010310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="40">
+        <v>65000000020</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" s="40">
+        <v>1</v>
+      </c>
+      <c r="D84" s="40">
+        <v>2</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H84" s="40">
+        <v>9</v>
+      </c>
+      <c r="I84" s="40">
+        <v>49000007001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40">
+        <v>65000000021</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="40">
+        <v>2</v>
+      </c>
+      <c r="D85" s="40">
+        <v>1</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85" s="40">
+        <v>10</v>
+      </c>
+      <c r="J85" s="40" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40">
+        <v>65000000022</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="40">
+        <v>2</v>
+      </c>
+      <c r="D86" s="40">
+        <v>2</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40">
+        <v>5</v>
+      </c>
+      <c r="I86" s="40">
+        <v>49000006000</v>
+      </c>
+      <c r="J86" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40">
+        <v>65000000023</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C87" s="40">
+        <v>2</v>
+      </c>
+      <c r="D87" s="40">
+        <v>2</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40">
+        <v>13</v>
+      </c>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K87" s="40"/>
+    </row>
+    <row r="88" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40">
+        <v>65000000024</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C88" s="40">
+        <v>2</v>
+      </c>
+      <c r="D88" s="40">
+        <v>2</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40">
+        <v>11</v>
+      </c>
+      <c r="I88" s="40">
+        <v>14020006001</v>
+      </c>
+      <c r="J88" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K88" s="40"/>
+    </row>
+    <row r="89" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40">
+        <v>65000000025</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C89" s="40">
+        <v>1</v>
+      </c>
+      <c r="D89" s="40">
+        <v>2</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40">
+        <v>4</v>
+      </c>
+      <c r="I89" s="40">
+        <v>31021021010</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+    </row>
+    <row r="90" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40">
+        <v>65000000026</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="C90" s="40">
+        <v>2</v>
+      </c>
+      <c r="D90" s="40">
+        <v>2</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40">
+        <v>5</v>
+      </c>
+      <c r="I90" s="40">
+        <v>49000006070</v>
+      </c>
+      <c r="J90" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="K90" s="40"/>
+    </row>
+    <row r="91" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="96">
+        <v>65000000027</v>
+      </c>
+      <c r="B91" s="96" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" s="96">
+        <v>1</v>
+      </c>
+      <c r="D91" s="96">
+        <v>2</v>
+      </c>
+      <c r="E91" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="96">
+        <v>1</v>
+      </c>
+      <c r="I91" s="96">
+        <v>9999</v>
+      </c>
+      <c r="J91" s="96"/>
+      <c r="K91" s="96"/>
+    </row>
+    <row r="92" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40">
+        <v>65000000101</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92" s="40">
+        <v>2</v>
+      </c>
+      <c r="D92" s="40">
+        <v>1</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40">
+        <v>16</v>
+      </c>
+      <c r="I92" s="40">
+        <v>1</v>
+      </c>
+      <c r="J92" s="40">
+        <v>2</v>
+      </c>
+      <c r="K92" s="40"/>
+    </row>
+    <row r="93" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40">
+        <v>65000000102</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C93" s="40">
+        <v>2</v>
+      </c>
+      <c r="D93" s="40">
+        <v>1</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40">
+        <v>16</v>
+      </c>
+      <c r="I93" s="40">
+        <v>2</v>
+      </c>
+      <c r="J93" s="40">
+        <v>2</v>
+      </c>
+      <c r="K93" s="40"/>
+    </row>
+    <row r="94" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40">
+        <v>65000000111</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="40">
+        <v>2</v>
+      </c>
+      <c r="D94" s="40">
+        <v>1</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40">
+        <v>12</v>
+      </c>
+      <c r="I94" s="40">
+        <v>1</v>
+      </c>
+      <c r="J94" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="K94" s="40"/>
+    </row>
+    <row r="95" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="40">
+        <v>65000000112</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" s="40">
+        <v>2</v>
+      </c>
+      <c r="D95" s="40">
+        <v>1</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40">
+        <v>12</v>
+      </c>
+      <c r="I95" s="40">
+        <v>2</v>
+      </c>
+      <c r="J95" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="K95" s="40"/>
+    </row>
+    <row r="96" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="40">
+        <v>65000000201</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" s="40">
+        <v>2</v>
+      </c>
+      <c r="D96" s="40">
+        <v>2</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40">
+        <v>14</v>
+      </c>
+      <c r="I96" s="40">
+        <v>58000200016</v>
+      </c>
+      <c r="J96" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="K96" s="40"/>
+    </row>
+    <row r="97" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40">
+        <v>65000000202</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" s="40">
+        <v>2</v>
+      </c>
+      <c r="D97" s="40">
+        <v>2</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40">
+        <v>14</v>
+      </c>
+      <c r="I97" s="40">
+        <v>58000200018</v>
+      </c>
+      <c r="J97" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K97" s="40"/>
+    </row>
+    <row r="98" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40">
+        <v>65000000203</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="40">
+        <v>2</v>
+      </c>
+      <c r="D98" s="40">
+        <v>2</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40">
+        <v>14</v>
+      </c>
+      <c r="I98" s="40">
+        <v>58000200020</v>
+      </c>
+      <c r="J98" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K98" s="40"/>
+    </row>
+    <row r="99" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40">
+        <v>65000000204</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" s="40">
+        <v>2</v>
+      </c>
+      <c r="D99" s="40">
+        <v>2</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40">
+        <v>14</v>
+      </c>
+      <c r="I99" s="40">
+        <v>58000200022</v>
+      </c>
+      <c r="J99" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K99" s="40"/>
+    </row>
+    <row r="100" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40">
+        <v>65000000211</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C100" s="40">
+        <v>2</v>
+      </c>
+      <c r="D100" s="40">
+        <v>2</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40">
+        <v>15</v>
+      </c>
+      <c r="I100" s="40">
+        <v>58000200016</v>
+      </c>
+      <c r="J100" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K100" s="40"/>
+    </row>
+    <row r="101" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40">
+        <v>65000000212</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C101" s="40">
+        <v>2</v>
+      </c>
+      <c r="D101" s="40">
+        <v>2</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40">
+        <v>15</v>
+      </c>
+      <c r="I101" s="40">
+        <v>58000200018</v>
+      </c>
+      <c r="J101" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K101" s="40"/>
+    </row>
+    <row r="102" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40">
+        <v>65000000213</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" s="40">
+        <v>2</v>
+      </c>
+      <c r="D102" s="40">
+        <v>2</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40">
+        <v>15</v>
+      </c>
+      <c r="I102" s="40">
+        <v>58000200020</v>
+      </c>
+      <c r="J102" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K102" s="40"/>
+    </row>
+    <row r="103" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40">
+        <v>65000000214</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="40">
+        <v>2</v>
+      </c>
+      <c r="D103" s="40">
+        <v>2</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40">
+        <v>15</v>
+      </c>
+      <c r="I103" s="40">
+        <v>58000200022</v>
+      </c>
+      <c r="J103" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="K103" s="40"/>
+    </row>
+    <row r="104" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40">
+        <v>65000000301</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="C104" s="40">
+        <v>2</v>
+      </c>
+      <c r="D104" s="40">
+        <v>3</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40">
+        <v>3</v>
+      </c>
+      <c r="I104" s="40">
+        <v>31011010060</v>
+      </c>
+      <c r="J104" s="40"/>
+      <c r="K104" s="98"/>
+    </row>
+    <row r="105" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40">
+        <v>65000000302</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="C105" s="40">
+        <v>2</v>
+      </c>
+      <c r="D105" s="40">
+        <v>3</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>628</v>
+      </c>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40">
+        <v>3</v>
+      </c>
+      <c r="I105" s="40">
+        <v>31011010090</v>
+      </c>
+      <c r="J105" s="40"/>
+      <c r="K105" s="98"/>
+    </row>
+    <row r="106" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40">
+        <v>65000000303</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>629</v>
+      </c>
+      <c r="C106" s="40">
+        <v>2</v>
+      </c>
+      <c r="D106" s="40">
+        <v>3</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40">
+        <v>3</v>
+      </c>
+      <c r="I106" s="40">
+        <v>31011010190</v>
+      </c>
+      <c r="J106" s="40"/>
+      <c r="K106" s="98"/>
+    </row>
+    <row r="107" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40">
+        <v>65000000304</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="C107" s="40">
+        <v>2</v>
+      </c>
+      <c r="D107" s="40">
+        <v>3</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40">
+        <v>3</v>
+      </c>
+      <c r="I107" s="40">
+        <v>31011010240</v>
+      </c>
+      <c r="J107" s="40"/>
+      <c r="K107" s="98"/>
+    </row>
+    <row r="108" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="40">
+        <v>65000000305</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="C108" s="40">
+        <v>2</v>
+      </c>
+      <c r="D108" s="40">
+        <v>1</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40">
+        <v>1</v>
+      </c>
+      <c r="I108" s="40">
+        <v>300</v>
+      </c>
+      <c r="J108" s="40"/>
+      <c r="K108" s="98"/>
+    </row>
+    <row r="109" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="40">
+        <v>65000000401</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="C109" s="40">
+        <v>2</v>
+      </c>
+      <c r="D109" s="40">
+        <v>3</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40">
+        <v>3</v>
+      </c>
+      <c r="I109" s="40">
+        <v>31011010091</v>
+      </c>
+      <c r="J109" s="40"/>
+    </row>
+    <row r="110" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="40">
+        <v>65000000402</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="C110" s="40">
+        <v>2</v>
+      </c>
+      <c r="D110" s="40">
+        <v>3</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40">
+        <v>3</v>
+      </c>
+      <c r="I110" s="40">
+        <v>31011010241</v>
+      </c>
+      <c r="J110" s="40"/>
+    </row>
+    <row r="111" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="40">
+        <v>65000000403</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="C111" s="40">
+        <v>2</v>
+      </c>
+      <c r="D111" s="40">
+        <v>3</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40">
+        <v>3</v>
+      </c>
+      <c r="I111" s="40">
+        <v>31011020050</v>
+      </c>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="40">
+        <v>65000000404</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="C112" s="40">
+        <v>2</v>
+      </c>
+      <c r="D112" s="40">
+        <v>3</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40">
+        <v>3</v>
+      </c>
+      <c r="I112" s="40">
+        <v>31011020241</v>
+      </c>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="113" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="40">
+        <v>65000000405</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="C113" s="40">
+        <v>2</v>
+      </c>
+      <c r="D113" s="40">
+        <v>3</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>661</v>
+      </c>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40">
+        <v>3</v>
+      </c>
+      <c r="I113" s="40">
+        <v>31011030050</v>
+      </c>
+      <c r="J113" s="40"/>
+    </row>
+    <row r="114" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="40">
+        <v>65000000406</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="C114" s="40">
+        <v>2</v>
+      </c>
+      <c r="D114" s="40">
+        <v>3</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40">
+        <v>3</v>
+      </c>
+      <c r="I114" s="40">
+        <v>31011030139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="11">
+        <v>65000000408</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>697</v>
+      </c>
+      <c r="C115" s="11">
+        <v>2</v>
+      </c>
+      <c r="D115" s="11">
+        <v>3</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="H115" s="11">
+        <v>17</v>
+      </c>
+      <c r="I115" s="11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="11">
+        <v>65000000410</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>700</v>
+      </c>
+      <c r="C116" s="11">
+        <v>2</v>
+      </c>
+      <c r="D116" s="11">
+        <v>3</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H116" s="11">
+        <v>17</v>
+      </c>
+      <c r="I116" s="11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="11">
+        <v>65000000411</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="C117" s="11">
+        <v>2</v>
+      </c>
+      <c r="D117" s="11">
+        <v>3</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="H117" s="11">
+        <v>18</v>
+      </c>
+      <c r="I117" s="11">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A64:A116">
+    <cfRule type="duplicateValues" dxfId="95" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="94" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15949,7 +17398,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
@@ -27762,13 +29211,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27925,1537 +29374,133 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40">
-        <v>65000000407</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>674</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="A5" s="11">
+        <v>65000000412</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="40">
-        <v>1</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40">
-        <v>1</v>
-      </c>
-      <c r="I5" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40">
-        <v>65000000001</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="40">
-        <v>2</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="H6" s="40">
-        <v>3</v>
-      </c>
-      <c r="I6" s="40">
-        <v>31011010010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40">
-        <v>65000000002</v>
-      </c>
-      <c r="B7" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="40">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="40">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40">
-        <v>31021030010</v>
-      </c>
-      <c r="H7" s="40">
-        <v>1</v>
-      </c>
-      <c r="I7" s="40">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40">
-        <v>65000000003</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="40">
-        <v>1</v>
-      </c>
-      <c r="D8" s="40">
-        <v>2</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="40">
-        <v>3</v>
-      </c>
-      <c r="I8" s="40">
-        <v>31011030040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40">
-        <v>65000000004</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="40">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40">
-        <v>2</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="40">
-        <v>4</v>
-      </c>
-      <c r="I9" s="40">
-        <v>31011030090</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40">
-        <v>65000000005</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="40">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40">
-        <v>2</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="40">
-        <v>2</v>
-      </c>
-      <c r="G10" s="40">
-        <v>37</v>
-      </c>
-      <c r="H10" s="40">
-        <v>3</v>
-      </c>
-      <c r="I10" s="40">
-        <v>31011030092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40">
-        <v>65000000006</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40">
-        <v>2</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="40">
-        <v>3</v>
-      </c>
-      <c r="I11" s="40">
-        <v>31011030141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40">
-        <v>65000000007</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="40">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40">
-        <v>2</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="40">
-        <v>7</v>
-      </c>
-      <c r="I12" s="40">
-        <v>49100003001</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
-        <v>65000000008</v>
-      </c>
-      <c r="B13" s="130" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="40">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40">
-        <v>2</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="40">
-        <v>1</v>
-      </c>
-      <c r="I13" s="40">
-        <v>9999</v>
-      </c>
-      <c r="K13" s="40">
-        <v>49000005902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
-        <v>65000000009</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="40">
-        <v>1</v>
-      </c>
-      <c r="D14" s="40">
-        <v>2</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="40">
-        <v>8</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40">
-        <v>65000000010</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="40">
-        <v>1</v>
-      </c>
-      <c r="D15" s="40">
-        <v>2</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="40">
-        <v>2</v>
-      </c>
-      <c r="I15" s="40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40">
-        <v>65000000011</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="40">
-        <v>2</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="40">
-        <v>1</v>
-      </c>
-      <c r="I16" s="40">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40">
-        <v>65000000012</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" s="40">
-        <v>1</v>
-      </c>
-      <c r="D17" s="40">
-        <v>2</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="40">
-        <v>3</v>
-      </c>
-      <c r="I17" s="40">
-        <v>31011030150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40">
-        <v>65000000013</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="40">
-        <v>1</v>
-      </c>
-      <c r="D18" s="40">
-        <v>2</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="40">
-        <v>2</v>
-      </c>
-      <c r="I18" s="40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40">
-        <v>65000000014</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="40">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40">
-        <v>2</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="40">
-        <v>4</v>
-      </c>
-      <c r="I19" s="40">
-        <v>31021010210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40">
-        <v>65000000015</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="C20" s="40">
-        <v>1</v>
-      </c>
-      <c r="D20" s="40">
-        <v>2</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="40">
-        <v>4</v>
-      </c>
-      <c r="I20" s="40">
-        <v>31021010410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40">
-        <v>65000000016</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="40">
-        <v>1</v>
-      </c>
-      <c r="D21" s="40">
-        <v>2</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="40">
-        <v>2</v>
-      </c>
-      <c r="I21" s="40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40">
-        <v>65000000017</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40">
-        <v>2</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="40">
-        <v>2</v>
-      </c>
-      <c r="I22" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40">
-        <v>65000000018</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="40">
-        <v>1</v>
-      </c>
-      <c r="D23" s="40">
-        <v>2</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="40">
-        <v>2</v>
-      </c>
-      <c r="I23" s="40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40">
-        <v>65000000019</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="40">
-        <v>1</v>
-      </c>
-      <c r="D24" s="40">
-        <v>2</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="40">
-        <v>4</v>
-      </c>
-      <c r="I24" s="40">
-        <v>31021010310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40">
-        <v>65000000020</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C25" s="40">
-        <v>1</v>
-      </c>
-      <c r="D25" s="40">
-        <v>2</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" s="40">
-        <v>9</v>
-      </c>
-      <c r="I25" s="40">
-        <v>49000007001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40">
-        <v>65000000021</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="40">
-        <v>2</v>
-      </c>
-      <c r="D26" s="40">
-        <v>1</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="H26" s="40">
-        <v>10</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40">
-        <v>65000000022</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="40">
-        <v>2</v>
-      </c>
-      <c r="D27" s="40">
-        <v>2</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40">
-        <v>5</v>
-      </c>
-      <c r="I27" s="40">
-        <v>49000006000</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K27" s="40"/>
-    </row>
-    <row r="28" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40">
-        <v>65000000023</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" s="40">
-        <v>2</v>
-      </c>
-      <c r="D28" s="40">
-        <v>2</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40">
-        <v>13</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40">
-        <v>65000000024</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="C29" s="40">
-        <v>2</v>
-      </c>
-      <c r="D29" s="40">
-        <v>2</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40">
-        <v>11</v>
-      </c>
-      <c r="I29" s="40">
-        <v>14020006001</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K29" s="40"/>
-    </row>
-    <row r="30" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40">
-        <v>65000000025</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="40">
-        <v>1</v>
-      </c>
-      <c r="D30" s="40">
-        <v>2</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40">
-        <v>4</v>
-      </c>
-      <c r="I30" s="40">
-        <v>31021021010</v>
-      </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-    </row>
-    <row r="31" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40">
-        <v>65000000026</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="40">
-        <v>2</v>
-      </c>
-      <c r="D31" s="40">
-        <v>2</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40">
-        <v>5</v>
-      </c>
-      <c r="I31" s="40">
-        <v>49000006070</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="K31" s="40"/>
-    </row>
-    <row r="32" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="96">
-        <v>65000000027</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="C32" s="96">
-        <v>1</v>
-      </c>
-      <c r="D32" s="96">
-        <v>2</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96">
-        <v>1</v>
-      </c>
-      <c r="I32" s="96">
-        <v>9999</v>
-      </c>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-    </row>
-    <row r="33" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40">
-        <v>65000000101</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="40">
-        <v>2</v>
-      </c>
-      <c r="D33" s="40">
-        <v>1</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40">
-        <v>16</v>
-      </c>
-      <c r="I33" s="40">
-        <v>1</v>
-      </c>
-      <c r="J33" s="40">
-        <v>2</v>
-      </c>
-      <c r="K33" s="40"/>
-    </row>
-    <row r="34" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40">
-        <v>65000000102</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" s="40">
-        <v>2</v>
-      </c>
-      <c r="D34" s="40">
-        <v>1</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40">
-        <v>16</v>
-      </c>
-      <c r="I34" s="40">
-        <v>2</v>
-      </c>
-      <c r="J34" s="40">
-        <v>2</v>
-      </c>
-      <c r="K34" s="40"/>
-    </row>
-    <row r="35" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="40">
-        <v>65000000111</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="C35" s="40">
-        <v>2</v>
-      </c>
-      <c r="D35" s="40">
-        <v>1</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40">
-        <v>12</v>
-      </c>
-      <c r="I35" s="40">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="K35" s="40"/>
-    </row>
-    <row r="36" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="40">
-        <v>65000000112</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="40">
-        <v>2</v>
-      </c>
-      <c r="D36" s="40">
-        <v>1</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40">
-        <v>12</v>
-      </c>
-      <c r="I36" s="40">
-        <v>2</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="K36" s="40"/>
-    </row>
-    <row r="37" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="40">
-        <v>65000000201</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C37" s="40">
-        <v>2</v>
-      </c>
-      <c r="D37" s="40">
-        <v>2</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40">
-        <v>14</v>
-      </c>
-      <c r="I37" s="40">
-        <v>58000200016</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="K37" s="40"/>
-    </row>
-    <row r="38" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="40">
-        <v>65000000202</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C38" s="40">
-        <v>2</v>
-      </c>
-      <c r="D38" s="40">
-        <v>2</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40">
-        <v>14</v>
-      </c>
-      <c r="I38" s="40">
-        <v>58000200018</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K38" s="40"/>
-    </row>
-    <row r="39" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="40">
-        <v>65000000203</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C39" s="40">
-        <v>2</v>
-      </c>
-      <c r="D39" s="40">
-        <v>2</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40">
-        <v>14</v>
-      </c>
-      <c r="I39" s="40">
-        <v>58000200020</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K39" s="40"/>
-    </row>
-    <row r="40" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="40">
-        <v>65000000204</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C40" s="40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="40">
-        <v>2</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40">
-        <v>14</v>
-      </c>
-      <c r="I40" s="40">
-        <v>58000200022</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K40" s="40"/>
-    </row>
-    <row r="41" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="40">
-        <v>65000000211</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C41" s="40">
-        <v>2</v>
-      </c>
-      <c r="D41" s="40">
-        <v>2</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40">
-        <v>15</v>
-      </c>
-      <c r="I41" s="40">
-        <v>58000200016</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K41" s="40"/>
-    </row>
-    <row r="42" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="40">
-        <v>65000000212</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C42" s="40">
-        <v>2</v>
-      </c>
-      <c r="D42" s="40">
-        <v>2</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40">
-        <v>15</v>
-      </c>
-      <c r="I42" s="40">
-        <v>58000200018</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K42" s="40"/>
-    </row>
-    <row r="43" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="40">
-        <v>65000000213</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" s="40">
-        <v>2</v>
-      </c>
-      <c r="D43" s="40">
-        <v>2</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40">
-        <v>15</v>
-      </c>
-      <c r="I43" s="40">
-        <v>58000200020</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K43" s="40"/>
-    </row>
-    <row r="44" spans="1:11" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="40">
-        <v>65000000214</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" s="40">
-        <v>2</v>
-      </c>
-      <c r="D44" s="40">
-        <v>2</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40">
-        <v>15</v>
-      </c>
-      <c r="I44" s="40">
-        <v>58000200022</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="K44" s="40"/>
-    </row>
-    <row r="45" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="40">
-        <v>65000000301</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="C45" s="40">
-        <v>2</v>
-      </c>
-      <c r="D45" s="40">
-        <v>3</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40">
-        <v>3</v>
-      </c>
-      <c r="I45" s="40">
-        <v>31011010060</v>
-      </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="98"/>
-    </row>
-    <row r="46" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="40">
-        <v>65000000302</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>627</v>
-      </c>
-      <c r="C46" s="40">
-        <v>2</v>
-      </c>
-      <c r="D46" s="40">
-        <v>3</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40">
-        <v>3</v>
-      </c>
-      <c r="I46" s="40">
-        <v>31011010090</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="98"/>
-    </row>
-    <row r="47" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="40">
-        <v>65000000303</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="C47" s="40">
-        <v>2</v>
-      </c>
-      <c r="D47" s="40">
-        <v>3</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40">
-        <v>3</v>
-      </c>
-      <c r="I47" s="40">
-        <v>31011010190</v>
-      </c>
-      <c r="J47" s="40"/>
-      <c r="K47" s="98"/>
-    </row>
-    <row r="48" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="40">
-        <v>65000000304</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="C48" s="40">
-        <v>2</v>
-      </c>
-      <c r="D48" s="40">
-        <v>3</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>632</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40">
-        <v>3</v>
-      </c>
-      <c r="I48" s="40">
-        <v>31011010240</v>
-      </c>
-      <c r="J48" s="40"/>
-      <c r="K48" s="98"/>
-    </row>
-    <row r="49" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="40">
-        <v>65000000305</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="C49" s="40">
-        <v>2</v>
-      </c>
-      <c r="D49" s="40">
-        <v>1</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40">
-        <v>1</v>
-      </c>
-      <c r="I49" s="40">
-        <v>300</v>
-      </c>
-      <c r="J49" s="40"/>
-      <c r="K49" s="98"/>
-    </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="40">
-        <v>65000000401</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="C50" s="40">
-        <v>2</v>
-      </c>
-      <c r="D50" s="40">
-        <v>3</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>637</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40">
-        <v>3</v>
-      </c>
-      <c r="I50" s="40">
-        <v>31011010091</v>
-      </c>
-      <c r="J50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="40">
-        <v>65000000402</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="C51" s="40">
-        <v>2</v>
-      </c>
-      <c r="D51" s="40">
-        <v>3</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40">
-        <v>3</v>
-      </c>
-      <c r="I51" s="40">
-        <v>31011010241</v>
-      </c>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="40">
-        <v>65000000403</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>652</v>
-      </c>
-      <c r="C52" s="40">
-        <v>2</v>
-      </c>
-      <c r="D52" s="40">
-        <v>3</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40">
-        <v>3</v>
-      </c>
-      <c r="I52" s="40">
-        <v>31011020050</v>
-      </c>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="40">
-        <v>65000000404</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="C53" s="40">
-        <v>2</v>
-      </c>
-      <c r="D53" s="40">
-        <v>3</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40">
-        <v>3</v>
-      </c>
-      <c r="I53" s="40">
-        <v>31011020241</v>
-      </c>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="40">
-        <v>65000000405</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>660</v>
-      </c>
-      <c r="C54" s="40">
-        <v>2</v>
-      </c>
-      <c r="D54" s="40">
-        <v>3</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>661</v>
-      </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40">
-        <v>3</v>
-      </c>
-      <c r="I54" s="40">
-        <v>31011030050</v>
-      </c>
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="40">
-        <v>65000000406</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="C55" s="40">
-        <v>2</v>
-      </c>
-      <c r="D55" s="40">
-        <v>3</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>663</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40">
-        <v>3</v>
-      </c>
-      <c r="I55" s="40">
-        <v>31011030139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11">
-        <v>65000000408</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="C56" s="11">
-        <v>2</v>
-      </c>
-      <c r="D56" s="11">
-        <v>3</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="H56" s="11">
-        <v>17</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11">
-        <v>65000000410</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="C57" s="11">
-        <v>2</v>
-      </c>
-      <c r="D57" s="11">
-        <v>3</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="H57" s="11">
-        <v>17</v>
-      </c>
-      <c r="I57" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11">
-        <v>65000000411</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="C58" s="11">
-        <v>2</v>
-      </c>
-      <c r="D58" s="11">
-        <v>3</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="H58" s="11">
-        <v>18</v>
-      </c>
-      <c r="I58" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11">
-        <v>65000000412</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>727</v>
-      </c>
-      <c r="C59" s="11">
-        <v>2</v>
-      </c>
-      <c r="D59" s="11">
-        <v>3</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="H59" s="11">
-        <v>19</v>
-      </c>
-      <c r="I59" s="11">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="41"/>
-    </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="41"/>
-    </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="41"/>
-    </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="41"/>
-    </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="41"/>
-    </row>
-    <row r="65" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="41"/>
-    </row>
-    <row r="66" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="41"/>
-    </row>
-    <row r="67" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="41"/>
-    </row>
-    <row r="68" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="41"/>
-    </row>
-    <row r="69" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="41"/>
-    </row>
-    <row r="70" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="41"/>
-    </row>
-    <row r="71" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="41"/>
-    </row>
-    <row r="72" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="41"/>
-    </row>
-    <row r="73" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="41"/>
-    </row>
-    <row r="74" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="41"/>
-    </row>
-    <row r="75" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="41"/>
-    </row>
-    <row r="76" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="41"/>
-    </row>
-    <row r="78" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="41"/>
-    </row>
-    <row r="79" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="41"/>
-    </row>
-    <row r="80" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="41"/>
-    </row>
-    <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="41"/>
-    </row>
-    <row r="82" spans="1:10" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-    </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="41"/>
-    </row>
-    <row r="86" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="41"/>
-    </row>
-    <row r="87" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="41"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="41"/>
+    </row>
+    <row r="18" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="41"/>
+    </row>
+    <row r="19" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="41"/>
+    </row>
+    <row r="20" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="41"/>
+    </row>
+    <row r="22" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="41"/>
+    </row>
+    <row r="23" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="41"/>
+    </row>
+    <row r="24" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="41"/>
+    </row>
+    <row r="25" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="41"/>
+    </row>
+    <row r="28" spans="2:10" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="41"/>
+    </row>
+    <row r="29" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K55" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A4:K5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A59:A1048576 A1:A57">
-    <cfRule type="duplicateValues" dxfId="94" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="93" priority="1"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="93" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41192,10 +41237,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D17086-ED4B-4746-9E45-AEE2C0E955D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41225,7 +41270,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="102" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E1" s="103" t="s">
         <v>98</v>
@@ -41346,10 +41391,10 @@
         <v>4</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N3" s="101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O3" s="128" t="s">
         <v>1</v>
@@ -41402,22 +41447,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="111">
         <v>1</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>730</v>
-      </c>
-      <c r="C5" s="111"/>
+        <v>736</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>136</v>
+      </c>
       <c r="D5" s="112" t="s">
         <v>735</v>
       </c>
       <c r="E5" s="113" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G5" s="113" t="s">
         <v>710</v>
@@ -41431,14 +41478,51 @@
       <c r="L5" s="114">
         <v>0</v>
       </c>
-      <c r="M5" s="114">
-        <v>56001260900</v>
+      <c r="M5" s="133">
+        <v>1</v>
       </c>
       <c r="N5" s="114">
         <v>0</v>
       </c>
       <c r="O5" s="114">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="137">
+        <v>2</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>737</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="135" t="s">
+        <v>738</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>739</v>
+      </c>
+      <c r="F6" s="133">
+        <v>1</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>710</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>712</v>
+      </c>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="114">
+        <v>56001260900</v>
+      </c>
+      <c r="N6" s="133">
+        <v>1</v>
+      </c>
+      <c r="O6" s="133">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -52857,7 +52941,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N3" s="101" t="s">
         <v>5</v>
